--- a/KM5c_data/ODP_Site_662.xlsx
+++ b/KM5c_data/ODP_Site_662.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>25.29316151</v>
+        <v>25.31</v>
       </c>
       <c r="Q2">
-        <v>1.44808849</v>
+        <v>1.428633694118922</v>
       </c>
       <c r="R2">
-        <v>2.710414629999999</v>
+        <v>2.690959834118921</v>
       </c>
       <c r="S2">
         <v>1.226098484848489</v>
